--- a/events.xlsx
+++ b/events.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="initial_clean" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -1568,12 +1570,205 @@
       </rPr>
       <t>(id:72)</t>
     </r>
+  </si>
+  <si>
+    <t>See the Taunton Young Musician and Taunton Young Singer pages for more details on entering!</t>
+  </si>
+  <si>
+    <t>Taunton Young Singer Entries Close</t>
+  </si>
+  <si>
+    <t>Taunton Young Singer Competition</t>
+  </si>
+  <si>
+    <t>Meeting of the Taunton Young Musician Committee</t>
+  </si>
+  <si>
+    <t>Festival A.G.M.</t>
+  </si>
+  <si>
+    <t>Organ Symposium (Summer Festival 2015) Meeting</t>
+  </si>
+  <si>
+    <t>Double Bass Competition Meeting</t>
+  </si>
+  <si>
+    <t>Dance Festival Meeting</t>
+  </si>
+  <si>
+    <t>Taunton Junior Young Musician/ Taunton Young Musician Meeting</t>
+  </si>
+  <si>
+    <t>Trustees and Executive Committee Meeting</t>
+  </si>
+  <si>
+    <t>Somerset Song Prize &amp; Summer Festival 2015 Meeting</t>
+  </si>
+  <si>
+    <t>Summer Festival Organ Symposium Meeting</t>
+  </si>
+  <si>
+    <t>Taunton Young Musicians Meeting</t>
+  </si>
+  <si>
+    <t>National Double Bass Competition Meeting</t>
+  </si>
+  <si>
+    <t>Organ Symposium Steering Group</t>
+  </si>
+  <si>
+    <t>TYM/TJYM/TYS and TYTS Meeting</t>
+  </si>
+  <si>
+    <t>General Committee Meeting</t>
+  </si>
+  <si>
+    <t>Meeting of Song Prize and Summer Festival Steering Group</t>
+  </si>
+  <si>
+    <t>Summer Festival Steering Group</t>
+  </si>
+  <si>
+    <t>Bass Competition Meeting</t>
+  </si>
+  <si>
+    <t>Reception to launch the FESTIVAL HANDBOOK 2015</t>
+  </si>
+  <si>
+    <t>Meeting of Organ Symposium</t>
+  </si>
+  <si>
+    <t>Organ &amp; Choral Music Meeting</t>
+  </si>
+  <si>
+    <t>Closing date for Film Workshop</t>
+  </si>
+  <si>
+    <t>Applications close for Taunton Young Musician and Taunton Young Singer</t>
+  </si>
+  <si>
+    <t>Somerset Song Prize Meeting</t>
+  </si>
+  <si>
+    <t>Preliminary rounds for Taunton Young Musician and Taunton Young Singer</t>
+  </si>
+  <si>
+    <t>Executive Committee Meeting</t>
+  </si>
+  <si>
+    <t>Applications close for Taunton Young Music Theatre Singer</t>
+  </si>
+  <si>
+    <t>Taunton Young Music Theatre Singer</t>
+  </si>
+  <si>
+    <t>Music Festival - Piano &amp; Keyboard classes</t>
+  </si>
+  <si>
+    <t>Music Festival</t>
+  </si>
+  <si>
+    <t>Music Festival - Recorder, Brass &amp; Woodwind classes</t>
+  </si>
+  <si>
+    <t>Music Festival - Violin, Viola, Cello, Double Bass, Guitar Classes &amp; Junior Vocals</t>
+  </si>
+  <si>
+    <t>Music Festival - Senior Vocal classes</t>
+  </si>
+  <si>
+    <t>Music Festival - Adult Vocal classes</t>
+  </si>
+  <si>
+    <t>Taunton Junior Young Musician</t>
+  </si>
+  <si>
+    <t>Music Festival - Final of Taunton Young Musician &amp; Taunton Young Singer</t>
+  </si>
+  <si>
+    <t>Drama Festival</t>
+  </si>
+  <si>
+    <t>Somerset Song Prize Semi-Final</t>
+  </si>
+  <si>
+    <t>Somerset Song Prize Grand Final</t>
+  </si>
+  <si>
+    <t>Dance Festival</t>
+  </si>
+  <si>
+    <t>Summer Festival</t>
+  </si>
+  <si>
+    <t>Taunton Young Musician - Preliminary Round</t>
+  </si>
+  <si>
+    <t>Taunton Young Singer - Preliminary Round</t>
+  </si>
+  <si>
+    <t>Taunton Film Festival</t>
+  </si>
+  <si>
+    <t>Showground for Soloists</t>
+  </si>
+  <si>
+    <t>Piano Classes</t>
+  </si>
+  <si>
+    <t>Piano Classes, Day 2</t>
+  </si>
+  <si>
+    <t>Wind Classes</t>
+  </si>
+  <si>
+    <t>Strings Classes</t>
+  </si>
+  <si>
+    <t>Guitar Classes</t>
+  </si>
+  <si>
+    <t>Vocal Classes</t>
+  </si>
+  <si>
+    <t>Vocal Classes, Day 2</t>
+  </si>
+  <si>
+    <t>Vocal Classes, Day 3</t>
+  </si>
+  <si>
+    <t>Choirs</t>
+  </si>
+  <si>
+    <t>Taunton Junior Young Singer</t>
+  </si>
+  <si>
+    <t>Taunton Young Singer</t>
+  </si>
+  <si>
+    <t>Taunton Young Musician</t>
+  </si>
+  <si>
+    <t>Taunton Young Theatre Performer of the Year</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -1799,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
@@ -1852,38 +2047,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
@@ -1894,14 +2062,47 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="18" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1912,21 +2113,32 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="18" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2705,8 +2917,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5290,8 +5502,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>127</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5337,8 +5549,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>128</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>129</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5735,8 +5947,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15"/>
@@ -5766,684 +5978,684 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21">
+      <c r="A2" s="34"/>
+      <c r="B2" s="44">
         <v>41586</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="35">
         <v>2014</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="36">
         <v>41678</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29">
+      <c r="A4" s="31"/>
+      <c r="B4" s="43">
         <v>41673</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="32">
         <v>2014</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="33">
         <v>41678</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20">
+      <c r="A6" s="25"/>
+      <c r="B6" s="41">
         <v>41674</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="27">
         <v>2014</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="29">
         <v>41678</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29">
+      <c r="A8" s="31"/>
+      <c r="B8" s="43">
         <v>41694</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="32">
         <v>2014</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="33">
         <v>41679</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="25.5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20">
+      <c r="A10" s="25"/>
+      <c r="B10" s="41">
         <v>41707</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="27">
         <v>2014</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="29">
         <v>41679</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="38.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="5">
         <v>41710</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="32">
         <v>2014</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <v>41708</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="10">
         <v>0.4375</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1">
         <v>41724</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="27">
         <v>2014</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="29">
         <v>41692</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="11">
         <v>0.8125</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29">
+      <c r="D15" s="27"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="43">
         <v>41744</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32">
         <v>2014</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="33">
         <v>41723</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="25.5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20">
+      <c r="A18" s="25"/>
+      <c r="B18" s="41">
         <v>41745</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27">
         <v>2014</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="29">
         <v>41723</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31"/>
+      <c r="B20" s="43">
         <v>41751</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32">
         <v>2014</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="33">
         <v>41735</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="38.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20">
+      <c r="A22" s="25"/>
+      <c r="B22" s="41">
         <v>41752</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27">
         <v>2014</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="29">
         <v>41723</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="25.5">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29">
+      <c r="A24" s="31"/>
+      <c r="B24" s="43">
         <v>41752</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32">
         <v>2014</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="33">
         <v>41723</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" ht="38.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5">
+      <c r="A26" s="25"/>
+      <c r="B26" s="41">
         <v>41755</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
         <v>2014</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="29">
         <v>41723</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="5">
         <v>41772</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
         <v>2014</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="33">
         <v>41754</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="25.5">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="1">
         <v>41773</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27">
         <v>2014</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="29">
         <v>41754</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="25.5">
-      <c r="A32" s="28"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="5">
         <v>41780</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>2014</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="33">
         <v>41754</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="28"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="25.5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20">
+      <c r="A34" s="25"/>
+      <c r="B34" s="41">
         <v>41786</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27">
         <v>2014</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="29">
         <v>41779</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="25.5">
-      <c r="A36" s="28"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="5">
         <v>41801</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31" t="s">
+      <c r="D36" s="32"/>
+      <c r="E36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="32">
         <v>2014</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="33">
         <v>41773</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="10">
         <v>0.41666666666666669</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8" ht="25.5">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="1">
         <v>41801</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27">
         <v>2014</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="29">
         <v>41754</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="18"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11">
         <v>0.8125</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="25.5">
-      <c r="A40" s="28"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="5">
         <v>41801</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30">
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
         <v>2014</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="33">
         <v>41773</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="16">
         <v>0.8125</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="12"/>
@@ -6470,656 +6682,656 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21">
+      <c r="A43" s="34"/>
+      <c r="B43" s="44">
         <v>41818</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35">
         <v>2014</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="36">
         <v>41779</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8" ht="25.5">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29">
+      <c r="A45" s="31"/>
+      <c r="B45" s="43">
         <v>41862</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30">
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32">
         <v>2014</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="33">
         <v>41819</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="25.5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20">
+      <c r="A47" s="25"/>
+      <c r="B47" s="41">
         <v>41899</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27">
         <v>2014</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="29">
         <v>41870</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:8" ht="38.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29">
+      <c r="A49" s="31"/>
+      <c r="B49" s="43">
         <v>41908</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32">
         <v>2014</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="33">
         <v>41870</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8" ht="25.5">
-      <c r="A51" s="18"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="1">
         <v>41919</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22">
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27">
         <v>2014</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="29">
         <v>41911</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="18"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="11">
         <v>0.58333333333333337</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="25.5">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29">
+      <c r="A53" s="31"/>
+      <c r="B53" s="43">
         <v>41947</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30">
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32">
         <v>2014</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="33">
         <v>41944</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8" ht="25.5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20">
+      <c r="A55" s="25"/>
+      <c r="B55" s="41">
         <v>41955</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27">
         <v>2014</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="29">
         <v>41944</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="1:8" ht="51">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29">
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8" ht="38.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="43">
         <v>41960</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31" t="s">
+      <c r="D57" s="32"/>
+      <c r="E57" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="32">
         <v>2014</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="33">
         <v>41913</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
     </row>
     <row r="59" spans="1:8" ht="25.5">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20">
+      <c r="A59" s="25"/>
+      <c r="B59" s="41">
         <v>41965</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27">
         <v>2014</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="29">
         <v>41944</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="18"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="1:8" ht="51">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29">
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" ht="38.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="43">
         <v>41966</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30">
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32">
         <v>2014</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="33">
         <v>41756</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
     </row>
     <row r="63" spans="1:8" ht="25.5">
-      <c r="A63" s="18"/>
-      <c r="B63" s="20">
+      <c r="A63" s="25"/>
+      <c r="B63" s="41">
         <v>41969</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27">
         <v>2014</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="26">
+      <c r="H63" s="29">
         <v>41944</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="18"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" ht="38.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29">
+      <c r="A65" s="31"/>
+      <c r="B65" s="43">
         <v>42013</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30">
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32">
         <v>2015</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H65" s="33">
         <v>41972</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" ht="25.5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20">
+      <c r="A67" s="25"/>
+      <c r="B67" s="41">
         <v>42021</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27">
         <v>2015</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H67" s="29">
         <v>41756</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="18"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" ht="25.5">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29">
+      <c r="A69" s="31"/>
+      <c r="B69" s="43">
         <v>42037</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30">
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32">
         <v>2015</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="33">
         <v>41756</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="18"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22">
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27">
         <v>2015</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="26">
+      <c r="H71" s="29">
         <v>41678</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="18"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="1">
         <v>42043</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="26"/>
-    </row>
-    <row r="73" spans="1:8" ht="38.25">
-      <c r="A73" s="28"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="1:8" ht="25.5">
+      <c r="A73" s="31"/>
       <c r="B73" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30">
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32">
         <v>2015</v>
       </c>
-      <c r="G73" s="30" t="s">
+      <c r="G73" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="33">
         <v>41756</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="28"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="5">
         <v>42039</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="32"/>
-    </row>
-    <row r="75" spans="1:8" ht="51">
-      <c r="A75" s="18"/>
-      <c r="B75" s="20">
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
+    </row>
+    <row r="75" spans="1:8" ht="38.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="41">
         <v>42040</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22">
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27">
         <v>2015</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="29">
         <v>41756</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29">
+      <c r="A77" s="31"/>
+      <c r="B77" s="43">
         <v>42041</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30">
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32">
         <v>2015</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="32">
+      <c r="H77" s="33">
         <v>41756</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
     </row>
     <row r="79" spans="1:8" ht="25.5">
-      <c r="A79" s="18"/>
-      <c r="B79" s="20">
+      <c r="A79" s="25"/>
+      <c r="B79" s="41">
         <v>42042</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22">
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27">
         <v>2015</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="26">
+      <c r="H79" s="29">
         <v>41756</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="18"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="1:8" ht="25.5">
-      <c r="A81" s="28"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="5">
         <v>42042</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30">
+      <c r="E81" s="32"/>
+      <c r="F81" s="32">
         <v>2015</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="G81" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="32">
+      <c r="H81" s="33">
         <v>42043</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A82" s="35"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="16">
         <v>0.41666666666666669</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="12"/>
@@ -7145,717 +7357,717 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="51">
-      <c r="A84" s="19"/>
-      <c r="B84" s="21">
+    <row r="84" spans="1:8" ht="38.25">
+      <c r="A84" s="34"/>
+      <c r="B84" s="44">
         <v>42043</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23">
+      <c r="E84" s="35"/>
+      <c r="F84" s="35">
         <v>2015</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H84" s="36">
         <v>41756</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="18"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="28"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30">
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32">
         <v>2015</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="32">
+      <c r="H86" s="33">
         <v>41679</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="28"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="5">
         <v>42076</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="1:8" ht="25.5">
-      <c r="A88" s="18"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="1">
         <v>42140</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22">
+      <c r="E88" s="27"/>
+      <c r="F88" s="27">
         <v>2015</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H88" s="26">
+      <c r="H88" s="29">
         <v>41679</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="18"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="11">
         <v>0.4375</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" ht="25.5">
-      <c r="A90" s="28"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="5">
         <v>42141</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30">
+      <c r="E90" s="32"/>
+      <c r="F90" s="32">
         <v>2015</v>
       </c>
-      <c r="G90" s="30" t="s">
+      <c r="G90" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="32">
+      <c r="H90" s="33">
         <v>42089</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="28"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="10">
         <v>0.60416666666666663</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="33"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="18"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22">
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27">
         <v>2015</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="26">
+      <c r="H92" s="29">
         <v>41679</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="18"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="1">
         <v>42169</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="28"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30">
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32">
         <v>2015</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G94" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="32">
+      <c r="H94" s="33">
         <v>41692</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="28"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="5">
         <v>42211</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="33"/>
     </row>
     <row r="96" spans="1:8" ht="25.5">
-      <c r="A96" s="18"/>
-      <c r="B96" s="20">
+      <c r="A96" s="25"/>
+      <c r="B96" s="41">
         <v>42323</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22">
+      <c r="E96" s="27"/>
+      <c r="F96" s="27">
         <v>2015</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="26">
+      <c r="H96" s="29">
         <v>42319</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="18"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" spans="1:8" ht="25.5">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29">
+      <c r="A98" s="31"/>
+      <c r="B98" s="43">
         <v>42330</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30">
+      <c r="E98" s="32"/>
+      <c r="F98" s="32">
         <v>2015</v>
       </c>
-      <c r="G98" s="30" t="s">
+      <c r="G98" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="32">
+      <c r="H98" s="33">
         <v>42319</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="33"/>
     </row>
     <row r="100" spans="1:8" ht="36" customHeight="1">
-      <c r="A100" s="18"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="1">
         <v>42330</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F100" s="22">
+      <c r="F100" s="27">
         <v>2015</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="26">
+      <c r="H100" s="29">
         <v>42319</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="18"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="11">
         <v>0.5625</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="1:8" ht="36" customHeight="1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="5">
         <v>42337</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="32">
         <v>2015</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="32">
+      <c r="H102" s="33">
         <v>42302</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="28"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="10">
         <v>0.625</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="33"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="18"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="1">
         <v>42401</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22">
+      <c r="E104" s="27"/>
+      <c r="F104" s="27">
         <v>2016</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="G104" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H104" s="26">
+      <c r="H104" s="29">
         <v>42368</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="18"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="11">
         <v>0.40625</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="28"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="5">
         <v>42402</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D106" s="30" t="s">
+      <c r="D106" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30">
+      <c r="E106" s="32"/>
+      <c r="F106" s="32">
         <v>2016</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G106" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="32">
+      <c r="H106" s="33">
         <v>42368</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="28"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="10">
         <v>0.38541666666666669</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="33"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="18"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="1">
         <v>42402</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22">
+      <c r="E108" s="27"/>
+      <c r="F108" s="27">
         <v>2016</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H108" s="26">
+      <c r="H108" s="29">
         <v>42368</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="18"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="11">
         <v>0.39583333333333331</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="26"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="28"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="5">
         <v>42404</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30">
+      <c r="E110" s="32"/>
+      <c r="F110" s="32">
         <v>2016</v>
       </c>
-      <c r="G110" s="30" t="s">
+      <c r="G110" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="32">
+      <c r="H110" s="33">
         <v>42368</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="28"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="10">
         <v>0.39583333333333331</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="33"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="18"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="1">
         <v>42405</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22">
+      <c r="E112" s="27"/>
+      <c r="F112" s="27">
         <v>2016</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="26">
+      <c r="H112" s="29">
         <v>42368</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="18"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="11">
         <v>0.39583333333333331</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="26"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="28"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="5">
         <v>42408</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30">
+      <c r="E114" s="32"/>
+      <c r="F114" s="32">
         <v>2016</v>
       </c>
-      <c r="G114" s="30" t="s">
+      <c r="G114" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="32">
+      <c r="H114" s="33">
         <v>42368</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="28"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="10">
         <v>0.375</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="33"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="18"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="1">
         <v>42409</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22">
+      <c r="E116" s="27"/>
+      <c r="F116" s="27">
         <v>2016</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H116" s="29">
         <v>42368</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="18"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="11">
         <v>0.375</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="26"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="29"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="28"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="5">
         <v>42410</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30">
+      <c r="E118" s="32"/>
+      <c r="F118" s="32">
         <v>2016</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G118" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="32">
+      <c r="H118" s="33">
         <v>42368</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="28"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="10">
         <v>0.375</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="33"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="18"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="1">
         <v>42411</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22">
+      <c r="E120" s="27"/>
+      <c r="F120" s="27">
         <v>2016</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H120" s="26">
+      <c r="H120" s="29">
         <v>42368</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="18"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="11">
         <v>0.41666666666666669</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="26"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="29"/>
     </row>
     <row r="122" spans="1:8" ht="25.5">
-      <c r="A122" s="28"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="5">
         <v>42427</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30">
+      <c r="E122" s="32"/>
+      <c r="F122" s="32">
         <v>2016</v>
       </c>
-      <c r="G122" s="30" t="s">
+      <c r="G122" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H122" s="32">
+      <c r="H122" s="33">
         <v>42319</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A123" s="35"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="16">
         <v>0.41666666666666669</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="37"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="39"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1">
       <c r="A124" s="12"/>
@@ -7882,270 +8094,485 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="25.5">
-      <c r="A125" s="19"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="1">
         <v>42427</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23">
+      <c r="E125" s="35"/>
+      <c r="F125" s="35">
         <v>2016</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="27">
+      <c r="H125" s="36">
         <v>42394</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="18"/>
+      <c r="A126" s="25"/>
       <c r="B126" s="11">
         <v>0.6875</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="26"/>
-    </row>
-    <row r="127" spans="1:8" ht="25.5">
-      <c r="A127" s="28"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="31"/>
       <c r="B127" s="5">
         <v>42428</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30">
+      <c r="E127" s="32"/>
+      <c r="F127" s="32">
         <v>2016</v>
       </c>
-      <c r="G127" s="30" t="s">
+      <c r="G127" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="32">
+      <c r="H127" s="33">
         <v>42394</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="28"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="10">
         <v>0.60416666666666663</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="32"/>
-    </row>
-    <row r="129" spans="1:8" ht="25.5">
-      <c r="A129" s="18"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="33"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="25"/>
       <c r="B129" s="1">
         <v>42428</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22">
+      <c r="E129" s="27"/>
+      <c r="F129" s="27">
         <v>2016</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H129" s="26">
+      <c r="H129" s="29">
         <v>42394</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="18"/>
+      <c r="A130" s="25"/>
       <c r="B130" s="11">
         <v>0.60416666666666663</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="26"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="29"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="28"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30">
+      <c r="E131" s="32"/>
+      <c r="F131" s="32">
         <v>2016</v>
       </c>
-      <c r="G131" s="30" t="s">
+      <c r="G131" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="32">
+      <c r="H131" s="33">
         <v>42379</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="28"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="5">
         <v>42440</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="33"/>
     </row>
     <row r="133" spans="1:8" ht="25.5">
-      <c r="A133" s="18"/>
+      <c r="A133" s="25"/>
       <c r="B133" s="1">
         <v>42437</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22">
+      <c r="E133" s="27"/>
+      <c r="F133" s="27">
         <v>2016</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="26">
+      <c r="H133" s="29">
         <v>42379</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A134" s="40"/>
-      <c r="B134" s="38">
+      <c r="A134" s="26"/>
+      <c r="B134" s="23">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C134" s="39" t="s">
+      <c r="C134" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="41"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="42"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="420">
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
     <mergeCell ref="H84:H85"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="D86:D87"/>
@@ -8170,19 +8597,42 @@
     <mergeCell ref="G114:G115"/>
     <mergeCell ref="H114:H115"/>
     <mergeCell ref="A110:A111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="D102:D103"/>
     <mergeCell ref="E102:E103"/>
@@ -8190,299 +8640,61 @@
     <mergeCell ref="G102:G103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://www.tauntonfestival.org.uk/wp-admin/admin.php?page=el_admin_main&amp;date=all&amp;cat=all&amp;orderby=date&amp;order=desc"/>
@@ -8515,19 +8727,119 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId26" name="Control 88">
+        <control shapeId="1025" r:id="rId26" name="Control 1">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>132</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>132</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId26" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId28" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId28" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId29" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId29" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId30" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId30" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId31" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8535,24 +8847,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1112" r:id="rId26" name="Control 88"/>
+        <control shapeId="1029" r:id="rId31" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId28" name="Control 87">
+        <control shapeId="1030" r:id="rId32" name="Control 6">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>130</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>131</xdr:row>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId32" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId33" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId33" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId34" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
@@ -8560,24 +8922,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1111" r:id="rId28" name="Control 87"/>
+        <control shapeId="1032" r:id="rId34" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId29" name="Control 86">
+        <control shapeId="1033" r:id="rId35" name="Control 9">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>128</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>128</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8585,24 +8947,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1110" r:id="rId29" name="Control 86"/>
+        <control shapeId="1033" r:id="rId35" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId30" name="Control 85">
+        <control shapeId="1034" r:id="rId36" name="Control 10">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>126</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>126</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8610,24 +8972,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1109" r:id="rId30" name="Control 85"/>
+        <control shapeId="1034" r:id="rId36" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId31" name="Control 84">
+        <control shapeId="1035" r:id="rId37" name="Control 11">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>124</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>124</xdr:row>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId37" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId38" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8635,24 +9022,249 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1108" r:id="rId31" name="Control 84"/>
+        <control shapeId="1036" r:id="rId38" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId32" name="Control 83">
+        <control shapeId="1037" r:id="rId39" name="Control 13">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>123</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>124</xdr:row>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId39" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId40" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId40" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId41" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId41" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId42" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId42" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId43" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId43" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId44" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId44" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId45" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId45" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId46" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId46" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId47" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId47" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId48" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -8660,24 +9272,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1107" r:id="rId32" name="Control 83"/>
+        <control shapeId="1046" r:id="rId48" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId33" name="Control 82">
+        <control shapeId="1047" r:id="rId49" name="Control 23">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>121</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>121</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8685,249 +9297,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1106" r:id="rId33" name="Control 82"/>
+        <control shapeId="1047" r:id="rId49" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId34" name="Control 81">
+        <control shapeId="1048" r:id="rId50" name="Control 24">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>120</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId34" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId35" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId35" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId36" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId36" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId37" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId37" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId38" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId38" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId39" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId39" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId40" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId40" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId41" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId41" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId42" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId42" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId43" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>44</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8935,24 +9322,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId43" name="Control 72"/>
+        <control shapeId="1048" r:id="rId50" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId44" name="Control 71">
+        <control shapeId="1049" r:id="rId51" name="Control 25">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>99</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>99</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8960,24 +9347,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId44" name="Control 71"/>
+        <control shapeId="1049" r:id="rId51" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId45" name="Control 70">
+        <control shapeId="1050" r:id="rId52" name="Control 26">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -8985,24 +9372,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1094" r:id="rId45" name="Control 70"/>
+        <control shapeId="1050" r:id="rId52" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId46" name="Control 69">
+        <control shapeId="1051" r:id="rId53" name="Control 27">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>95</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>95</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9010,74 +9397,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId46" name="Control 69"/>
+        <control shapeId="1051" r:id="rId53" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId47" name="Control 68">
+        <control shapeId="1052" r:id="rId54" name="Control 28">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>93</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId47" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId48" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId48" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId49" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9085,24 +9422,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId49" name="Control 66"/>
+        <control shapeId="1052" r:id="rId54" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId50" name="Control 65">
+        <control shapeId="1053" r:id="rId55" name="Control 29">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9110,49 +9447,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId50" name="Control 65"/>
+        <control shapeId="1053" r:id="rId55" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId51" name="Control 64">
+        <control shapeId="1054" r:id="rId56" name="Control 30">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId51" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId52" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9160,49 +9472,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId52" name="Control 63"/>
+        <control shapeId="1054" r:id="rId56" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId53" name="Control 62">
+        <control shapeId="1055" r:id="rId57" name="Control 31">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId53" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId54" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>80</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9210,24 +9497,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId54" name="Control 42"/>
+        <control shapeId="1055" r:id="rId57" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId55" name="Control 41">
+        <control shapeId="1056" r:id="rId58" name="Control 32">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9235,24 +9522,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId55" name="Control 41"/>
+        <control shapeId="1056" r:id="rId58" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId56" name="Control 40">
+        <control shapeId="1057" r:id="rId59" name="Control 33">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9260,24 +9547,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId56" name="Control 40"/>
+        <control shapeId="1057" r:id="rId59" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId57" name="Control 39">
+        <control shapeId="1058" r:id="rId60" name="Control 34">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9285,82 +9572,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1063" r:id="rId57" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId58" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId58" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId59" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId59" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId60" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId60" name="Control 36"/>
+        <control shapeId="1058" r:id="rId60" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9390,19 +9602,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId62" name="Control 34">
+        <control shapeId="1060" r:id="rId62" name="Control 36">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9410,24 +9622,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId62" name="Control 34"/>
+        <control shapeId="1060" r:id="rId62" name="Control 36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId63" name="Control 33">
+        <control shapeId="1061" r:id="rId63" name="Control 37">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId63" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId64" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9435,24 +9672,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId63" name="Control 33"/>
+        <control shapeId="1062" r:id="rId64" name="Control 38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId64" name="Control 32">
+        <control shapeId="1063" r:id="rId65" name="Control 39">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9460,24 +9697,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId64" name="Control 32"/>
+        <control shapeId="1063" r:id="rId65" name="Control 39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId65" name="Control 31">
+        <control shapeId="1064" r:id="rId66" name="Control 40">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9485,24 +9722,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId65" name="Control 31"/>
+        <control shapeId="1064" r:id="rId66" name="Control 40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId66" name="Control 30">
+        <control shapeId="1065" r:id="rId67" name="Control 41">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9510,24 +9747,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId66" name="Control 30"/>
+        <control shapeId="1065" r:id="rId67" name="Control 41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId67" name="Control 29">
+        <control shapeId="1066" r:id="rId68" name="Control 42">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>80</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9535,24 +9772,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId67" name="Control 29"/>
+        <control shapeId="1066" r:id="rId68" name="Control 42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId68" name="Control 28">
+        <control shapeId="1086" r:id="rId69" name="Control 62">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId69" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId70" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9560,24 +9822,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId68" name="Control 28"/>
+        <control shapeId="1087" r:id="rId70" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId69" name="Control 27">
+        <control shapeId="1088" r:id="rId71" name="Control 64">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId71" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId72" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9585,24 +9872,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId69" name="Control 27"/>
+        <control shapeId="1089" r:id="rId72" name="Control 65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId70" name="Control 26">
+        <control shapeId="1090" r:id="rId73" name="Control 66">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9610,24 +9897,74 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId70" name="Control 26"/>
+        <control shapeId="1090" r:id="rId73" name="Control 66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId71" name="Control 25">
+        <control shapeId="1091" r:id="rId74" name="Control 67">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId74" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId75" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId75" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId76" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>95</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9635,24 +9972,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId71" name="Control 25"/>
+        <control shapeId="1093" r:id="rId76" name="Control 69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId72" name="Control 24">
+        <control shapeId="1094" r:id="rId77" name="Control 70">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>97</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9660,24 +9997,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId72" name="Control 24"/>
+        <control shapeId="1094" r:id="rId77" name="Control 70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId73" name="Control 23">
+        <control shapeId="1095" r:id="rId78" name="Control 71">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>99</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>99</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9685,24 +10022,299 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId73" name="Control 23"/>
+        <control shapeId="1095" r:id="rId78" name="Control 71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId74" name="Control 22">
+        <control shapeId="1096" r:id="rId79" name="Control 72">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>101</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId79" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId80" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId80" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId81" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId81" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId82" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId82" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId83" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId83" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId84" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId84" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId85" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId85" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId86" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId86" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId87" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId87" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId88" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId88" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId89" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId89" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId90" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>123</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>124</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -9710,24 +10322,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId74" name="Control 22"/>
+        <control shapeId="1107" r:id="rId90" name="Control 83"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId75" name="Control 21">
+        <control shapeId="1108" r:id="rId91" name="Control 84">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>124</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>124</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9735,24 +10347,99 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId75" name="Control 21"/>
+        <control shapeId="1108" r:id="rId91" name="Control 84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId76" name="Control 20">
+        <control shapeId="1109" r:id="rId92" name="Control 85">
           <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>126</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>127</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId92" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId93" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>128</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>129</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId93" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId94" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>130</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>131</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId94" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId95" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>132</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>132</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -9760,484 +10447,2786 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId76" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId77" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId77" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId78" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId78" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId79" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId79" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId80" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId80" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId81" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId81" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId82" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId82" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId83" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId83" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId84" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId84" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId85" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId85" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId86" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId86" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId87" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId87" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId88" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId88" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId89" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId89" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId90" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId90" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId91" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId91" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId92" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId92" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId93" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId93" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId94" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId94" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId95" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId95" name="Control 1"/>
+        <control shapeId="1112" r:id="rId95" name="Control 88"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E130" sqref="A1:E131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A2" s="44">
+        <v>41586</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="36">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="43">
+        <v>41673</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="33">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1">
+      <c r="A6" s="41">
+        <v>41674</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="43">
+        <v>41694</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="33">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="41">
+        <v>41707</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.5">
+      <c r="A12" s="20">
+        <v>41710</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="33">
+        <v>41708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1">
+      <c r="A13" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="18">
+        <v>41724</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="29">
+        <v>41692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A15" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="43">
+        <v>41744</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="41">
+        <v>41745</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="29">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A19" s="41"/>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="43">
+        <v>41751</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33">
+        <v>41735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="25.5">
+      <c r="A22" s="41">
+        <v>41752</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="43">
+        <v>41752</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="A26" s="41">
+        <v>41755</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="29">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="A28" s="20">
+        <v>41772</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A29" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="18">
+        <v>41773</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="29">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A31" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32" s="20">
+        <v>41780</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A33" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="41">
+        <v>41786</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="29">
+        <v>41779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A35" s="41"/>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="A36" s="20">
+        <v>41801</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="33">
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A37" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
+      <c r="A38" s="18">
+        <v>41801</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="29">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A39" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="A40" s="20">
+        <v>41801</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33">
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A41" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="A42" s="44">
+        <v>41818</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36">
+        <v>41779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="41"/>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1">
+      <c r="A44" s="43">
+        <v>41862</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33">
+        <v>41819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="43"/>
+      <c r="B45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
+      <c r="A46" s="41">
+        <v>41899</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="29">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="41"/>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1">
+      <c r="A48" s="43">
+        <v>41908</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="43"/>
+      <c r="B49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
+      <c r="A50" s="18">
+        <v>41919</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="29">
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1">
+      <c r="A52" s="43">
+        <v>41947</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="43"/>
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1">
+      <c r="A54" s="41">
+        <v>41955</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="29">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="41"/>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" ht="25.5">
+      <c r="A56" s="43">
+        <v>41960</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="33">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="43"/>
+      <c r="B57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1">
+      <c r="A58" s="41">
+        <v>41965</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="29">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="41"/>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" ht="25.5">
+      <c r="A60" s="43">
+        <v>41966</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="43"/>
+      <c r="B61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1">
+      <c r="A62" s="41">
+        <v>41969</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="29">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="41"/>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1">
+      <c r="A64" s="43">
+        <v>42013</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33">
+        <v>41972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="43"/>
+      <c r="B65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1">
+      <c r="A66" s="41">
+        <v>42021</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="29">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="41"/>
+      <c r="B67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="29"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1">
+      <c r="A68" s="43">
+        <v>42037</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="43"/>
+      <c r="B69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
+    </row>
+    <row r="70" spans="1:5" ht="25.5">
+      <c r="A70" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="29">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="18">
+        <v>42043</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" ht="25.5">
+      <c r="A72" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="20">
+        <v>42039</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="33"/>
+    </row>
+    <row r="74" spans="1:5" ht="25.5">
+      <c r="A74" s="41">
+        <v>42040</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="29">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="41"/>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="29"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1">
+      <c r="A76" s="43">
+        <v>42041</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="43"/>
+      <c r="B77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1">
+      <c r="A78" s="41">
+        <v>42042</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="29">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="41"/>
+      <c r="B79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="29"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1">
+      <c r="A80" s="20">
+        <v>42042</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="33">
+        <v>42043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A81" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" spans="1:5" ht="25.5">
+      <c r="A82" s="44">
+        <v>42043</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="36">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="41"/>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="29"/>
+    </row>
+    <row r="84" spans="1:5" ht="25.5">
+      <c r="A84" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="33">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="20">
+        <v>42076</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="33"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1">
+      <c r="A86" s="18">
+        <v>42140</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="29">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="29"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1">
+      <c r="A88" s="20">
+        <v>42141</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="33"/>
+    </row>
+    <row r="90" spans="1:5" ht="25.5">
+      <c r="A90" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="29">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="18">
+        <v>42169</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:5" ht="25.5">
+      <c r="A92" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="33">
+        <v>41692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="20">
+        <v>42211</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1">
+      <c r="A94" s="41">
+        <v>42323</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="29">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="41"/>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="29"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1">
+      <c r="A96" s="43">
+        <v>42330</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="43"/>
+      <c r="B97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="33"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1">
+      <c r="A98" s="18">
+        <v>42330</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" s="29">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="29"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1">
+      <c r="A100" s="20">
+        <v>42337</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="33">
+        <v>42302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1">
+      <c r="A102" s="18">
+        <v>42401</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="29">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="29"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1">
+      <c r="A104" s="20">
+        <v>42402</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="10">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1">
+      <c r="A106" s="18">
+        <v>42402</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="29">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="29"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1">
+      <c r="A108" s="20">
+        <v>42404</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="33">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="33"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1">
+      <c r="A110" s="18">
+        <v>42405</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="29">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="29"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1">
+      <c r="A112" s="20">
+        <v>42408</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="32"/>
+      <c r="E112" s="33">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="33"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1">
+      <c r="A114" s="18">
+        <v>42409</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="29">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="29"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1">
+      <c r="A116" s="20">
+        <v>42410</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="32"/>
+      <c r="E116" s="33">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="33"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1">
+      <c r="A118" s="18">
+        <v>42411</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="29">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="29"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1">
+      <c r="A120" s="20">
+        <v>42427</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="33">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A121" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="39"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1">
+      <c r="A122" s="18">
+        <v>42427</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="36">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="29"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1">
+      <c r="A124" s="20">
+        <v>42428</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="32"/>
+      <c r="E124" s="33">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="33"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1">
+      <c r="A126" s="18">
+        <v>42428</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="27"/>
+      <c r="E126" s="29">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="29"/>
+    </row>
+    <row r="128" spans="1:5" ht="25.5">
+      <c r="A128" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" s="32"/>
+      <c r="E128" s="33">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="20">
+        <v>42440</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="33"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1">
+      <c r="A130" s="18">
+        <v>42437</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="29">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A131" s="23">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="225">
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://www.tauntonfestival.org.uk/wp-admin/admin.php?page=el_admin_main&amp;date=all&amp;cat=all&amp;orderby=date&amp;order=desc"/>
+    <hyperlink ref="B1" r:id="rId2" display="http://www.tauntonfestival.org.uk/wp-admin/admin.php?page=el_admin_main&amp;date=all&amp;cat=all&amp;orderby=title&amp;order=asc"/>
+    <hyperlink ref="C1" r:id="rId3" display="http://www.tauntonfestival.org.uk/wp-admin/admin.php?page=el_admin_main&amp;date=all&amp;cat=all&amp;orderby=location&amp;order=asc"/>
+    <hyperlink ref="E1" r:id="rId4" display="http://www.tauntonfestival.org.uk/wp-admin/admin.php?page=el_admin_main&amp;date=all&amp;cat=all&amp;orderby=pub_date&amp;order=asc"/>
+    <hyperlink ref="D8" r:id="rId5" tooltip="Taunton Young Singer" display="http://www.tauntonfestival.org.uk/events/taunton-young-singer/"/>
+    <hyperlink ref="D14" r:id="rId6" tooltip="Contact Us" display="http://www.tauntonfestival.org.uk/contact-us/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="48">
+        <v>41694</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="48">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="48">
+        <v>41707</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="48">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="48">
+        <v>41710</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0.4375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="48">
+        <v>41708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="48">
+        <v>41724</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="48">
+        <v>41692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="48">
+        <v>41744</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="48">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="48">
+        <v>41745</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="48">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="48">
+        <v>41751</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="48">
+        <v>41735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="48">
+        <v>41752</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="48">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="48">
+        <v>41752</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="48">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="48">
+        <v>41755</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="48">
+        <v>41723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="48">
+        <v>41772</v>
+      </c>
+      <c r="C12" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="48">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="48">
+        <v>41773</v>
+      </c>
+      <c r="C13" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="48">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48">
+        <v>41780</v>
+      </c>
+      <c r="C14" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="48">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48">
+        <v>41786</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="48">
+        <v>41779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48">
+        <v>41801</v>
+      </c>
+      <c r="C16" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="48">
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48">
+        <v>41801</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="48">
+        <v>41754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="48">
+        <v>41801</v>
+      </c>
+      <c r="C18" s="49">
+        <v>0.8125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="48">
+        <v>41773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="48">
+        <v>41818</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="48">
+        <v>41779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="48">
+        <v>41862</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="48">
+        <v>41819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="48">
+        <v>41899</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="48">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="48">
+        <v>41908</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="48">
+        <v>41870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="48">
+        <v>41919</v>
+      </c>
+      <c r="C23" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="48">
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="48">
+        <v>41947</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="48">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="48">
+        <v>41955</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="48">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="48">
+        <v>41960</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="48">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="48">
+        <v>41965</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="48">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="48">
+        <v>41966</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="48">
+        <v>41969</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="48">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="48">
+        <v>42013</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="48">
+        <v>41972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="48">
+        <v>42021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="48">
+        <v>42037</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="48">
+        <v>42037</v>
+      </c>
+      <c r="B33" s="48">
+        <v>42043</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="48">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="48">
+        <v>42038</v>
+      </c>
+      <c r="B34" s="48">
+        <v>42039</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="48">
+        <v>42040</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="48">
+        <v>42041</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="48">
+        <v>42042</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="48">
+        <v>42042</v>
+      </c>
+      <c r="C38" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="48">
+        <v>42043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="48">
+        <v>42043</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="48">
+        <v>41756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="48">
+        <v>42072</v>
+      </c>
+      <c r="B40" s="48">
+        <v>42076</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="48">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="48">
+        <v>42140</v>
+      </c>
+      <c r="C41" s="49">
+        <v>0.4375</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="48">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="48">
+        <v>42141</v>
+      </c>
+      <c r="C42" s="49">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="48">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="48">
+        <v>42167</v>
+      </c>
+      <c r="B43" s="48">
+        <v>42169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="48">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="48">
+        <v>42203</v>
+      </c>
+      <c r="B44" s="48">
+        <v>42211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="48">
+        <v>41692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="48">
+        <v>42323</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="48">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="48">
+        <v>42330</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="48">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="48">
+        <v>42330</v>
+      </c>
+      <c r="C47" s="49">
+        <v>0.5625</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="48">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="48">
+        <v>42337</v>
+      </c>
+      <c r="C48" s="49">
+        <v>0.625</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="48">
+        <v>42302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="48">
+        <v>42401</v>
+      </c>
+      <c r="C49" s="49">
+        <v>0.40625</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="48">
+        <v>42402</v>
+      </c>
+      <c r="C50" s="49">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="48">
+        <v>42402</v>
+      </c>
+      <c r="C51" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="48">
+        <v>42404</v>
+      </c>
+      <c r="C52" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="48">
+        <v>42405</v>
+      </c>
+      <c r="C53" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="48">
+        <v>42408</v>
+      </c>
+      <c r="C54" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="48">
+        <v>42409</v>
+      </c>
+      <c r="C55" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="48">
+        <v>42410</v>
+      </c>
+      <c r="C56" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="48">
+        <v>42411</v>
+      </c>
+      <c r="C57" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="48">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="48">
+        <v>42427</v>
+      </c>
+      <c r="C58" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="48">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="48">
+        <v>42427</v>
+      </c>
+      <c r="C59" s="49">
+        <v>0.6875</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="48">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="48">
+        <v>42428</v>
+      </c>
+      <c r="C60" s="49">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="48">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="48">
+        <v>42428</v>
+      </c>
+      <c r="C61" s="49">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="48">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="48">
+        <v>42436</v>
+      </c>
+      <c r="B62" s="48">
+        <v>42440</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="48">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="48">
+        <v>42437</v>
+      </c>
+      <c r="C63" s="49">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="48">
+        <v>42379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>